--- a/excel/AI Agents in Real Estate.xlsx
+++ b/excel/AI Agents in Real Estate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/49afe6381fd2a7e4/Desktop/DigeonTech/Newsletter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{EB62BC86-361A-4F89-932E-8C0F986E5B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6AD313E8-A761-46B5-A764-9B476F32BC59}"/>
+    <workbookView minimized="1" xWindow="3640" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{6AD313E8-A761-46B5-A764-9B476F32BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,9 +230,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -376,7 +376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -518,7 +518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7FB7DB-E86D-476D-A8B0-82C73B8833BE}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/excel/AI Agents in Real Estate.xlsx
+++ b/excel/AI Agents in Real Estate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c0cbccc594207fa0/Desktop/digeon/digeon/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB62BC86-361A-4F89-932E-8C0F986E5B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{EB62BC86-361A-4F89-932E-8C0F986E5B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B38FE9E-EE47-4068-93E3-AF12DC2565E5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3640" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{6AD313E8-A761-46B5-A764-9B476F32BC59}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{6AD313E8-A761-46B5-A764-9B476F32BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>AI Agents in Real Estate</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Included in Zillow platform</t>
   </si>
   <si>
-    <t>Zillow</t>
-  </si>
-  <si>
     <t>Revaluate</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>AI-driven property management and client matching</t>
   </si>
   <si>
-    <t>Rex</t>
-  </si>
-  <si>
     <t>OJO Labs</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Predictive analytics for property pricing and marketing</t>
   </si>
   <si>
-    <t>Compass</t>
-  </si>
-  <si>
     <t>SmartZip</t>
   </si>
   <si>
@@ -145,6 +136,48 @@
   </si>
   <si>
     <t>AI for home buying and selling with virtual agents</t>
+  </si>
+  <si>
+    <t>https://www.zillow.com/</t>
+  </si>
+  <si>
+    <t>https://revaluate.com/</t>
+  </si>
+  <si>
+    <t>https://www.rexhomes.com/</t>
+  </si>
+  <si>
+    <t>https://ojo.com/</t>
+  </si>
+  <si>
+    <t>https://www.housecanary.com/</t>
+  </si>
+  <si>
+    <t>https://www.citybldr.com/</t>
+  </si>
+  <si>
+    <t>https://www.realscout.com/</t>
+  </si>
+  <si>
+    <t>https://structurely.com/</t>
+  </si>
+  <si>
+    <t>https://restb.ai/</t>
+  </si>
+  <si>
+    <t>https://www.compass.com/</t>
+  </si>
+  <si>
+    <t>https://smartzip.com/</t>
+  </si>
+  <si>
+    <t>https://rentlytics.com/lander</t>
+  </si>
+  <si>
+    <t>https://www.knock.com/</t>
+  </si>
+  <si>
+    <t>https://www.reali.com/</t>
   </si>
 </sst>
 </file>
@@ -528,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7FB7DB-E86D-476D-A8B0-82C73B8833BE}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,222 +602,222 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://www.zillow.com/" xr:uid="{5578E096-226B-4518-9F06-F6824AE9DD8E}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://revaluate.com/" xr:uid="{2B9FDA37-A143-4AD1-A6C4-D582FFB0D36D}"/>
-    <hyperlink ref="D5" r:id="rId3" display="https://www.rexhomes.com/" xr:uid="{C28FA310-7A3B-4FCC-A1D9-34E0413BD9E6}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://www.ojolabs.com/" xr:uid="{0726C718-55B5-433E-AB14-AFE3ABBFBCF2}"/>
-    <hyperlink ref="D7" r:id="rId5" display="https://www.housecanary.com/" xr:uid="{81445584-4EF5-4272-BE58-4CCC276E4DCC}"/>
-    <hyperlink ref="D8" r:id="rId6" display="https://citybldr.com/" xr:uid="{A063964C-D7A4-4C89-9401-4D0563C925B9}"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.realscout.com/" xr:uid="{F6980E1D-AB76-4B18-A9C3-CB768761045A}"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.askporter.com/" xr:uid="{5C0BFECE-387E-4021-A979-C312C3799D0F}"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://structurely.com/" xr:uid="{EFF3EB09-501B-4580-9309-0D38B659FA8B}"/>
-    <hyperlink ref="D12" r:id="rId10" display="https://restb.ai/" xr:uid="{D8103727-3740-4B1B-A469-069D384C2753}"/>
-    <hyperlink ref="D13" r:id="rId11" display="https://www.compass.com/" xr:uid="{EF08ED3B-C8AD-4A0D-9210-449527EFBDCD}"/>
-    <hyperlink ref="D14" r:id="rId12" display="https://smartzip.com/" xr:uid="{6BDD5DD3-C19C-4808-BD16-9F0AB6D7F3F0}"/>
-    <hyperlink ref="D15" r:id="rId13" display="https://rentlytics.com/" xr:uid="{FF85340E-E26F-47F6-8D9A-DBFAE7498201}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://knock.com/" xr:uid="{8BA58F4C-F9FB-4B0F-98F7-30D83E61486B}"/>
-    <hyperlink ref="D17" r:id="rId15" display="https://www.reali.com/" xr:uid="{CAEA57E7-C8D8-4C75-B52F-D3CB3BC9D0B1}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{5578E096-226B-4518-9F06-F6824AE9DD8E}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{2B9FDA37-A143-4AD1-A6C4-D582FFB0D36D}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{C28FA310-7A3B-4FCC-A1D9-34E0413BD9E6}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{0726C718-55B5-433E-AB14-AFE3ABBFBCF2}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{81445584-4EF5-4272-BE58-4CCC276E4DCC}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{A063964C-D7A4-4C89-9401-4D0563C925B9}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{F6980E1D-AB76-4B18-A9C3-CB768761045A}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{5C0BFECE-387E-4021-A979-C312C3799D0F}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{EFF3EB09-501B-4580-9309-0D38B659FA8B}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{D8103727-3740-4B1B-A469-069D384C2753}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{EF08ED3B-C8AD-4A0D-9210-449527EFBDCD}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{6BDD5DD3-C19C-4808-BD16-9F0AB6D7F3F0}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{FF85340E-E26F-47F6-8D9A-DBFAE7498201}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{8BA58F4C-F9FB-4B0F-98F7-30D83E61486B}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{CAEA57E7-C8D8-4C75-B52F-D3CB3BC9D0B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
